--- a/Batchdata/tests/batchdata_local_input.xlsx
+++ b/Batchdata/tests/batchdata_local_input.xlsx
@@ -744,7 +744,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>https://api.batchdata.io</t>
+          <t>https://api.batchdata.com/api/v1</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -983,10 +983,8 @@
           <t>JPBD ONE, LLC</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>23801257</t>
-        </is>
+      <c r="D2" t="n">
+        <v>23801257</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -1013,7 +1011,6 @@
           <t>PO BOX 624</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr">
         <is>
           <t>80814</t>
@@ -1024,17 +1021,11 @@
           <t>USA</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr"/>
       <c r="N2" t="inlineStr">
         <is>
           <t>Maricopa</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="inlineStr"/>
       <c r="T2" t="inlineStr">
         <is>
           <t>Derived from eCorp search: JPBD ONE LLC</t>
@@ -1057,10 +1048,8 @@
           <t>JPBD ONE, LLC</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>23801257</t>
-        </is>
+      <c r="D3" t="n">
+        <v>23801257</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -1087,7 +1076,6 @@
           <t>4531 E. Beryl Lane</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr">
         <is>
           <t>85028</t>
@@ -1098,17 +1086,11 @@
           <t>USA</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr">
         <is>
           <t>Maricopa</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr">
         <is>
           <t>Derived from eCorp search: JPBD ONE LLC</t>
@@ -1131,10 +1113,8 @@
           <t>ZION PROPERTY PARTNERS LLC</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>23800981</t>
-        </is>
+      <c r="D4" t="n">
+        <v>23800981</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -1161,7 +1141,6 @@
           <t>4539 N 22ND STREET STE R</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr">
         <is>
           <t>AZ 85016</t>
@@ -1172,17 +1151,11 @@
           <t>USA</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr">
         <is>
           <t>Maricopa</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr">
         <is>
           <t>Derived from eCorp search: ZION PROPERTY LLC</t>
@@ -1205,10 +1178,8 @@
           <t>Leric Enterprises, LLC</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>23774701</t>
-        </is>
+      <c r="D5" t="n">
+        <v>23774701</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -1235,7 +1206,6 @@
           <t>1933 w holden dr</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr">
         <is>
           <t>85085</t>
@@ -1246,17 +1216,11 @@
           <t>USA</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr">
         <is>
           <t>Maricopa</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="inlineStr"/>
       <c r="T5" t="inlineStr">
         <is>
           <t>Derived from eCorp search: LERIC ENTERPRISES LLC</t>
@@ -1578,7 +1542,6 @@
           <t>mailing_city</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1591,7 +1554,6 @@
           <t>mailing_state</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1757,7 +1719,6 @@
           <t>unit_type/unit_number</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1770,7 +1731,6 @@
           <t>city/state/zip/zip4</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">

--- a/Batchdata/tests/batchdata_local_input.xlsx
+++ b/Batchdata/tests/batchdata_local_input.xlsx
@@ -724,7 +724,6 @@
           <t>defaults.state_fallback</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr">
         <is>
           <t>2-letter</t>
@@ -868,102 +867,102 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>record_id</t>
+          <t>BD_RECORD_ID</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>source_type</t>
+          <t>BD_SOURCE_TYPE</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>source_entity_name</t>
+          <t>BD_ENTITY_NAME</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>source_entity_id</t>
+          <t>BD_SOURCE_ENTITY_ID</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>title_role</t>
+          <t>BD_TITLE_ROLE</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>target_first_name</t>
+          <t>BD_TARGET_FIRST_NAME</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>target_last_name</t>
+          <t>BD_TARGET_LAST_NAME</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>owner_name_full</t>
+          <t>BD_OWNER_NAME_FULL</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>address_line1</t>
+          <t>BD_ADDRESS</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>address_line2</t>
+          <t>BD_ADDRESS_2</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>city</t>
+          <t>BD_CITY</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>state</t>
+          <t>BD_STATE</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>zip</t>
+          <t>BD_ZIP</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>county</t>
+          <t>BD_COUNTY</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>apn</t>
+          <t>BD_APN</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>mailing_line1</t>
+          <t>BD_MAILING_LINE1</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>mailing_city</t>
+          <t>BD_MAILING_CITY</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>mailing_state</t>
+          <t>BD_MAILING_STATE</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>mailing_zip</t>
+          <t>BD_MAILING_ZIP</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>notes</t>
+          <t>BD_NOTES</t>
         </is>
       </c>
     </row>
